--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -777,7 +777,7 @@
     <t>Endpoint.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$37</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="277">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -803,124 +803,11 @@
     <t>Contact details for a human to contact about the subscription. The primary use of this for system administrator troubleshooting.</t>
   </si>
   <si>
-    <t>Endpoint.contact.id</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.extension</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Endpoint.contact.period</t>
+    <t>Endpoint.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>Endpoint.period</t>
   </si>
   <si>
     <t>Interval the endpoint is expected to be operational</t>
@@ -1317,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK44"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1361,7 +1248,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.27734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3148,7 +3035,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>181</v>
       </c>
@@ -3166,7 +3053,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3358,7 +3245,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>181</v>
       </c>
@@ -3376,7 +3263,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3463,7 +3350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>181</v>
       </c>
@@ -3481,7 +3368,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3568,7 +3455,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>181</v>
       </c>
@@ -3586,7 +3473,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3673,7 +3560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>181</v>
       </c>
@@ -3691,7 +3578,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4095,7 +3982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>219</v>
       </c>
@@ -4111,7 +3998,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4406,7 +4293,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>238</v>
       </c>
@@ -4422,7 +4309,7 @@
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4614,7 +4501,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>247</v>
       </c>
@@ -4630,7 +4517,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4739,16 +4626,16 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4799,7 +4686,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4811,29 +4698,29 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -4842,19 +4729,19 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4880,34 +4767,32 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -4916,7 +4801,7 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>80</v>
@@ -4925,9 +4810,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4938,10 +4823,10 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -4953,12 +4838,14 @@
         <v>157</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -4986,10 +4873,10 @@
         <v>228</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5007,30 +4894,30 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5038,13 +4925,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5053,20 +4940,18 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>269</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5114,10 +4999,10 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -5129,7 +5014,7 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5137,7 +5022,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5148,32 +5033,30 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5197,37 +5080,37 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -5236,743 +5119,14 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="X41" s="2"/>
-      <c r="Y41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK44">
+  <autoFilter ref="A1:AK37">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5982,7 +5136,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI36">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>76</v>
@@ -3245,7 +3245,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>181</v>
       </c>
@@ -3257,13 +3257,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -4810,7 +4810,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>262</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1214,9 +1214,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.8984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1232,23 +1232,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.30078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
